--- a/biology/Zoologie/Conure_de_Cuba/Conure_de_Cuba.xlsx
+++ b/biology/Zoologie/Conure_de_Cuba/Conure_de_Cuba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psittacara euops
 La Conure de Cuba (Psittacara euops) est une espèce d'oiseaux néotropicaux.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Cuba[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Cuba.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suivant une étude phylogénique de Remsen et al. (2013), le genre Aratinga est entièrement redéfini pour être monophylétique. Le Congrès ornithologique international répercute ces changements dans sa classification de référence version 3.5 (2013), et la Conure de Cuba est déplacée vers le genre Psittacara[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suivant une étude phylogénique de Remsen et al. (2013), le genre Aratinga est entièrement redéfini pour être monophylétique. Le Congrès ornithologique international répercute ces changements dans sa classification de référence version 3.5 (2013), et la Conure de Cuba est déplacée vers le genre Psittacara.
 </t>
         </is>
       </c>
